--- a/data/word_list_2.xlsx
+++ b/data/word_list_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -420,19 +400,13 @@
           <t>möwe</t>
         </is>
       </c>
-      <c r="B2">
-        <v>3.08</v>
-      </c>
       <c r="C2">
         <v>4.64</v>
       </c>
       <c r="D2">
-        <v>2.6</v>
-      </c>
-      <c r="F2">
-        <v>4.64</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>3.08</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>seagull</t>
         </is>
@@ -447,10 +421,7 @@
       <c r="C3">
         <v>4.64</v>
       </c>
-      <c r="F3">
-        <v>4.64</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>fall down</t>
         </is>
@@ -465,10 +436,7 @@
       <c r="C4">
         <v>4.64</v>
       </c>
-      <c r="F4">
-        <v>4.64</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>cotton wool</t>
         </is>
@@ -483,10 +451,7 @@
       <c r="C5">
         <v>4.64</v>
       </c>
-      <c r="F5">
-        <v>4.64</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>week</t>
         </is>
@@ -501,10 +466,7 @@
       <c r="C6">
         <v>4.65</v>
       </c>
-      <c r="F6">
-        <v>4.65</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>grasp</t>
         </is>
@@ -519,10 +481,7 @@
       <c r="C7">
         <v>4.65</v>
       </c>
-      <c r="F7">
-        <v>4.65</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>combat</t>
         </is>
@@ -537,10 +496,7 @@
       <c r="C8">
         <v>4.65</v>
       </c>
-      <c r="F8">
-        <v>4.65</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>haunt</t>
         </is>
@@ -552,16 +508,13 @@
           <t>akrobatik</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="C9">
+        <v>4.65</v>
+      </c>
+      <c r="D9">
         <v>0.29</v>
       </c>
-      <c r="D9">
-        <v>4.65</v>
-      </c>
-      <c r="F9">
-        <v>4.65</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>acrobatics</t>
         </is>
@@ -573,16 +526,13 @@
           <t>speerwerfen</t>
         </is>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>4.65</v>
+      </c>
+      <c r="D10">
         <v>0.24</v>
       </c>
-      <c r="D10">
-        <v>4.65</v>
-      </c>
-      <c r="F10">
-        <v>4.65</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>javelin</t>
         </is>
@@ -594,16 +544,13 @@
           <t>gastwirt</t>
         </is>
       </c>
-      <c r="B11">
+      <c r="C11">
+        <v>4.65</v>
+      </c>
+      <c r="D11">
         <v>3.85</v>
       </c>
-      <c r="D11">
-        <v>4.65</v>
-      </c>
-      <c r="F11">
-        <v>4.65</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>innkeeper</t>
         </is>
@@ -615,16 +562,13 @@
           <t>glaser</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="C12">
+        <v>4.67</v>
+      </c>
+      <c r="D12">
         <v>0.04</v>
       </c>
-      <c r="D12">
-        <v>4.67</v>
-      </c>
-      <c r="F12">
-        <v>4.67</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>glazier</t>
         </is>
@@ -636,25 +580,22 @@
           <t>schwitzen</t>
         </is>
       </c>
-      <c r="E13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C13">
         <v>4.67</v>
       </c>
-      <c r="F13">
-        <v>4.67</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>sweat</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -667,10 +608,7 @@
       <c r="C14">
         <v>4.67</v>
       </c>
-      <c r="F14">
-        <v>4.67</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>august</t>
         </is>
@@ -685,10 +623,7 @@
       <c r="C15">
         <v>4.67</v>
       </c>
-      <c r="F15">
-        <v>4.67</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>elbow</t>
         </is>
@@ -703,10 +638,7 @@
       <c r="C16">
         <v>4.67</v>
       </c>
-      <c r="F16">
-        <v>4.67</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>remember</t>
         </is>
@@ -721,10 +653,7 @@
       <c r="C17">
         <v>4.67</v>
       </c>
-      <c r="F17">
-        <v>4.67</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>film</t>
         </is>
@@ -739,10 +668,7 @@
       <c r="C18">
         <v>4.67</v>
       </c>
-      <c r="F18">
-        <v>4.67</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>radiator</t>
         </is>
@@ -757,10 +683,7 @@
       <c r="C19">
         <v>4.67</v>
       </c>
-      <c r="F19">
-        <v>4.67</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>cardboard box</t>
         </is>
@@ -775,10 +698,7 @@
       <c r="C20">
         <v>4.67</v>
       </c>
-      <c r="F20">
-        <v>4.67</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>room</t>
         </is>
@@ -793,10 +713,7 @@
       <c r="C21">
         <v>4.67</v>
       </c>
-      <c r="F21">
-        <v>4.67</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>stamp</t>
         </is>
@@ -811,10 +728,7 @@
       <c r="C22">
         <v>4.67</v>
       </c>
-      <c r="F22">
-        <v>4.67</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -829,10 +743,7 @@
       <c r="C23">
         <v>4.67</v>
       </c>
-      <c r="F23">
-        <v>4.67</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>wale</t>
         </is>
@@ -844,28 +755,19 @@
           <t>zahnarzt</t>
         </is>
       </c>
-      <c r="B24">
-        <v>4.95</v>
-      </c>
       <c r="C24">
         <v>4.67</v>
       </c>
       <c r="D24">
-        <v>2.4</v>
-      </c>
-      <c r="F24">
-        <v>4.67</v>
-      </c>
-      <c r="H24" t="inlineStr">
+        <v>4.95</v>
+      </c>
+      <c r="E24">
+        <v>7.21</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>dentist</t>
         </is>
-      </c>
-      <c r="I24">
-        <v>7.21</v>
-      </c>
-      <c r="J24">
-        <v>5.37</v>
       </c>
     </row>
     <row r="25">
@@ -877,10 +779,7 @@
       <c r="C25">
         <v>4.68</v>
       </c>
-      <c r="F25">
-        <v>4.68</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>hike</t>
         </is>
@@ -892,16 +791,13 @@
           <t>drahtbürste</t>
         </is>
       </c>
-      <c r="B26">
+      <c r="C26">
+        <v>4.68</v>
+      </c>
+      <c r="D26">
         <v>0.12</v>
       </c>
-      <c r="D26">
-        <v>4.68</v>
-      </c>
-      <c r="F26">
-        <v>4.68</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>wire brush</t>
         </is>
@@ -916,10 +812,7 @@
       <c r="C27">
         <v>4.69</v>
       </c>
-      <c r="F27">
-        <v>4.69</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>queue</t>
         </is>
@@ -934,10 +827,7 @@
       <c r="C28">
         <v>4.69</v>
       </c>
-      <c r="F28">
-        <v>4.69</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>height</t>
         </is>
@@ -952,10 +842,7 @@
       <c r="C29">
         <v>4.69</v>
       </c>
-      <c r="F29">
-        <v>4.69</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>november</t>
         </is>
@@ -970,10 +857,7 @@
       <c r="C30">
         <v>4.69</v>
       </c>
-      <c r="F30">
-        <v>4.69</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>chatter</t>
         </is>
@@ -988,10 +872,7 @@
       <c r="C31">
         <v>4.69</v>
       </c>
-      <c r="F31">
-        <v>4.69</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>win</t>
         </is>
@@ -1006,10 +887,7 @@
       <c r="C32">
         <v>4.69</v>
       </c>
-      <c r="F32">
-        <v>4.69</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>silver</t>
         </is>
@@ -1024,10 +902,7 @@
       <c r="C33">
         <v>4.7</v>
       </c>
-      <c r="F33">
-        <v>4.7</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>blossom</t>
         </is>
@@ -1042,10 +917,7 @@
       <c r="C34">
         <v>4.7</v>
       </c>
-      <c r="F34">
-        <v>4.7</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>have an opinion</t>
         </is>
@@ -1060,10 +932,7 @@
       <c r="C35">
         <v>4.7</v>
       </c>
-      <c r="F35">
-        <v>4.7</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>nonsense</t>
         </is>
@@ -1075,16 +944,13 @@
           <t>seeadler</t>
         </is>
       </c>
-      <c r="B36">
+      <c r="C36">
+        <v>4.7</v>
+      </c>
+      <c r="D36">
         <v>0.73</v>
       </c>
-      <c r="D36">
-        <v>4.7</v>
-      </c>
-      <c r="F36">
-        <v>4.7</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>sea eagle</t>
         </is>
@@ -1096,16 +962,13 @@
           <t>xylophon</t>
         </is>
       </c>
-      <c r="B37">
+      <c r="C37">
+        <v>4.7</v>
+      </c>
+      <c r="D37">
         <v>0.67</v>
       </c>
-      <c r="D37">
-        <v>4.7</v>
-      </c>
-      <c r="F37">
-        <v>4.7</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>xylophone</t>
         </is>
@@ -1117,16 +980,13 @@
           <t>kneifzange</t>
         </is>
       </c>
-      <c r="B38">
+      <c r="C38">
+        <v>4.7</v>
+      </c>
+      <c r="D38">
         <v>0.2</v>
       </c>
-      <c r="D38">
-        <v>4.7</v>
-      </c>
-      <c r="F38">
-        <v>4.7</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>cutting pliers</t>
         </is>
@@ -1138,16 +998,13 @@
           <t>raspel</t>
         </is>
       </c>
-      <c r="B39">
+      <c r="C39">
+        <v>4.7</v>
+      </c>
+      <c r="D39">
         <v>0.14</v>
       </c>
-      <c r="D39">
-        <v>4.7</v>
-      </c>
-      <c r="F39">
-        <v>4.7</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>rasp</t>
         </is>
@@ -1159,16 +1016,13 @@
           <t>mathematiker</t>
         </is>
       </c>
-      <c r="B40">
+      <c r="C40">
+        <v>4.7</v>
+      </c>
+      <c r="D40">
         <v>5.99</v>
       </c>
-      <c r="D40">
-        <v>4.7</v>
-      </c>
-      <c r="F40">
-        <v>4.7</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>mathematician</t>
         </is>
@@ -1183,10 +1037,7 @@
       <c r="C41">
         <v>4.71</v>
       </c>
-      <c r="F41">
-        <v>4.71</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>movement</t>
         </is>
@@ -1201,10 +1052,7 @@
       <c r="C42">
         <v>4.71</v>
       </c>
-      <c r="F42">
-        <v>4.71</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>dachshund</t>
         </is>
@@ -1216,19 +1064,13 @@
           <t>hamster</t>
         </is>
       </c>
-      <c r="B43">
-        <v>1.09</v>
-      </c>
       <c r="C43">
         <v>4.71</v>
       </c>
       <c r="D43">
-        <v>2.75</v>
-      </c>
-      <c r="F43">
-        <v>4.71</v>
-      </c>
-      <c r="H43" t="inlineStr">
+        <v>1.09</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>hamster</t>
         </is>
@@ -1243,10 +1085,7 @@
       <c r="C44">
         <v>4.71</v>
       </c>
-      <c r="F44">
-        <v>4.71</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>check-out</t>
         </is>
@@ -1261,10 +1100,7 @@
       <c r="C45">
         <v>4.71</v>
       </c>
-      <c r="F45">
-        <v>4.71</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>victory</t>
         </is>
@@ -1279,10 +1115,7 @@
       <c r="C46">
         <v>4.71</v>
       </c>
-      <c r="F46">
-        <v>4.71</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>dust</t>
         </is>
@@ -1297,10 +1130,7 @@
       <c r="C47">
         <v>4.71</v>
       </c>
-      <c r="F47">
-        <v>4.71</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>tablet</t>
         </is>
@@ -1312,25 +1142,22 @@
           <t>kicken</t>
         </is>
       </c>
-      <c r="E48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C48">
         <v>4.71</v>
       </c>
-      <c r="F48">
-        <v>4.71</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
           <t>kick</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1343,10 +1170,7 @@
       <c r="C49">
         <v>4.72</v>
       </c>
-      <c r="F49">
-        <v>4.72</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>driver</t>
         </is>
@@ -1361,10 +1185,7 @@
       <c r="C50">
         <v>4.72</v>
       </c>
-      <c r="F50">
-        <v>4.72</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>miss</t>
         </is>
@@ -1379,10 +1200,7 @@
       <c r="C51">
         <v>4.72</v>
       </c>
-      <c r="F51">
-        <v>4.72</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>clover</t>
         </is>
@@ -1397,19 +1215,13 @@
       <c r="C52">
         <v>4.72</v>
       </c>
-      <c r="F52">
-        <v>4.72</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="E52">
+        <v>5.21</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>arrow</t>
         </is>
-      </c>
-      <c r="I52">
-        <v>5.21</v>
-      </c>
-      <c r="J52">
-        <v>6.38</v>
       </c>
     </row>
     <row r="53">
@@ -1421,19 +1233,13 @@
       <c r="C53">
         <v>4.72</v>
       </c>
-      <c r="F53">
-        <v>4.72</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="E53">
+        <v>6.71</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>screw</t>
         </is>
-      </c>
-      <c r="I53">
-        <v>6.71</v>
-      </c>
-      <c r="J53">
-        <v>6.7</v>
       </c>
     </row>
     <row r="54">
@@ -1445,10 +1251,7 @@
       <c r="C54">
         <v>4.72</v>
       </c>
-      <c r="F54">
-        <v>4.72</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>holiday</t>
         </is>
@@ -1460,16 +1263,13 @@
           <t>skijacke</t>
         </is>
       </c>
-      <c r="B55">
+      <c r="C55">
+        <v>4.72</v>
+      </c>
+      <c r="D55">
         <v>0.02</v>
       </c>
-      <c r="D55">
-        <v>4.72</v>
-      </c>
-      <c r="F55">
-        <v>4.72</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>ski jacket</t>
         </is>
@@ -1481,28 +1281,19 @@
           <t>hubschrauber</t>
         </is>
       </c>
-      <c r="B56">
-        <v>3.05</v>
-      </c>
       <c r="C56">
         <v>4.73</v>
       </c>
       <c r="D56">
-        <v>2.65</v>
-      </c>
-      <c r="F56">
-        <v>4.73</v>
-      </c>
-      <c r="H56" t="inlineStr">
+        <v>3.05</v>
+      </c>
+      <c r="E56">
+        <v>1.95</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>helicopter</t>
         </is>
-      </c>
-      <c r="I56">
-        <v>1.95</v>
-      </c>
-      <c r="J56">
-        <v>5.26</v>
       </c>
     </row>
     <row r="57">
@@ -1514,10 +1305,7 @@
       <c r="C57">
         <v>4.73</v>
       </c>
-      <c r="F57">
-        <v>4.73</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>weak</t>
         </is>
@@ -1532,10 +1320,7 @@
       <c r="C58">
         <v>4.74</v>
       </c>
-      <c r="F58">
-        <v>4.74</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>smart</t>
         </is>
@@ -1550,10 +1335,7 @@
       <c r="C59">
         <v>4.74</v>
       </c>
-      <c r="F59">
-        <v>4.74</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>line</t>
         </is>
@@ -1568,10 +1350,7 @@
       <c r="C60">
         <v>4.74</v>
       </c>
-      <c r="F60">
-        <v>4.74</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>mask</t>
         </is>
@@ -1586,10 +1365,7 @@
       <c r="C61">
         <v>4.74</v>
       </c>
-      <c r="F61">
-        <v>4.74</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>pirate</t>
         </is>
@@ -1604,10 +1380,7 @@
       <c r="C62">
         <v>4.74</v>
       </c>
-      <c r="F62">
-        <v>4.74</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>storm</t>
         </is>
@@ -1622,10 +1395,7 @@
       <c r="C63">
         <v>4.75</v>
       </c>
-      <c r="F63">
-        <v>4.75</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>worker</t>
         </is>
@@ -1640,10 +1410,7 @@
       <c r="C64">
         <v>4.75</v>
       </c>
-      <c r="F64">
-        <v>4.75</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>ribbon</t>
         </is>
@@ -1658,10 +1425,7 @@
       <c r="C65">
         <v>4.75</v>
       </c>
-      <c r="F65">
-        <v>4.75</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>last</t>
         </is>
@@ -1676,10 +1440,7 @@
       <c r="C66">
         <v>4.75</v>
       </c>
-      <c r="F66">
-        <v>4.75</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>mattress</t>
         </is>
@@ -1694,10 +1455,7 @@
       <c r="C67">
         <v>4.75</v>
       </c>
-      <c r="F67">
-        <v>4.75</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>swimmer</t>
         </is>
@@ -1712,10 +1470,7 @@
       <c r="C68">
         <v>4.75</v>
       </c>
-      <c r="F68">
-        <v>4.75</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>pay</t>
         </is>
@@ -1727,16 +1482,13 @@
           <t>leguan</t>
         </is>
       </c>
-      <c r="B69">
+      <c r="C69">
+        <v>4.75</v>
+      </c>
+      <c r="D69">
         <v>0.32</v>
       </c>
-      <c r="D69">
-        <v>4.75</v>
-      </c>
-      <c r="F69">
-        <v>4.75</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>iguana</t>
         </is>
@@ -1748,16 +1500,13 @@
           <t>wildente</t>
         </is>
       </c>
-      <c r="B70">
+      <c r="C70">
+        <v>4.75</v>
+      </c>
+      <c r="D70">
         <v>0.59</v>
       </c>
-      <c r="D70">
-        <v>4.75</v>
-      </c>
-      <c r="F70">
-        <v>4.75</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>wild duck</t>
         </is>
@@ -1769,16 +1518,13 @@
           <t>fellmütze</t>
         </is>
       </c>
-      <c r="B71">
+      <c r="C71">
+        <v>4.75</v>
+      </c>
+      <c r="D71">
         <v>0.15</v>
       </c>
-      <c r="D71">
-        <v>4.75</v>
-      </c>
-      <c r="F71">
-        <v>4.75</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>fur cap</t>
         </is>
@@ -1790,16 +1536,13 @@
           <t>skihose</t>
         </is>
       </c>
-      <c r="B72">
+      <c r="C72">
+        <v>4.75</v>
+      </c>
+      <c r="D72">
         <v>0.13</v>
       </c>
-      <c r="D72">
-        <v>4.75</v>
-      </c>
-      <c r="F72">
-        <v>4.75</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>ski bottoms</t>
         </is>
@@ -1811,16 +1554,13 @@
           <t>stöckelschuh</t>
         </is>
       </c>
-      <c r="B73">
+      <c r="C73">
+        <v>4.75</v>
+      </c>
+      <c r="D73">
         <v>0.58</v>
       </c>
-      <c r="D73">
-        <v>4.75</v>
-      </c>
-      <c r="F73">
-        <v>4.75</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>stiletto</t>
         </is>
@@ -1832,16 +1572,13 @@
           <t>wohnmobil</t>
         </is>
       </c>
-      <c r="B74">
+      <c r="C74">
+        <v>4.75</v>
+      </c>
+      <c r="D74">
         <v>0.08</v>
       </c>
-      <c r="D74">
-        <v>4.75</v>
-      </c>
-      <c r="F74">
-        <v>4.75</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>camper van</t>
         </is>
@@ -1853,16 +1590,13 @@
           <t>spachtel</t>
         </is>
       </c>
-      <c r="B75">
+      <c r="C75">
+        <v>4.75</v>
+      </c>
+      <c r="D75">
         <v>0.49</v>
       </c>
-      <c r="D75">
-        <v>4.75</v>
-      </c>
-      <c r="F75">
-        <v>4.75</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>scraper</t>
         </is>
@@ -1874,16 +1608,13 @@
           <t>gewichtheben</t>
         </is>
       </c>
-      <c r="B76">
+      <c r="C76">
+        <v>4.75</v>
+      </c>
+      <c r="D76">
         <v>0.16</v>
       </c>
-      <c r="D76">
-        <v>4.75</v>
-      </c>
-      <c r="F76">
-        <v>4.75</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>weightlifting</t>
         </is>
@@ -1895,16 +1626,13 @@
           <t>sportarzt</t>
         </is>
       </c>
-      <c r="B77">
+      <c r="C77">
+        <v>4.75</v>
+      </c>
+      <c r="D77">
         <v>0.24</v>
       </c>
-      <c r="D77">
-        <v>4.75</v>
-      </c>
-      <c r="F77">
-        <v>4.75</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>sports physician</t>
         </is>
@@ -1919,10 +1647,7 @@
       <c r="C78">
         <v>4.76</v>
       </c>
-      <c r="F78">
-        <v>4.76</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>april</t>
         </is>
@@ -1937,10 +1662,7 @@
       <c r="C79">
         <v>4.76</v>
       </c>
-      <c r="F79">
-        <v>4.76</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>grandchild</t>
         </is>
@@ -1955,10 +1677,7 @@
       <c r="C80">
         <v>4.76</v>
       </c>
-      <c r="F80">
-        <v>4.76</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>car ride</t>
         </is>
@@ -1973,10 +1692,7 @@
       <c r="C81">
         <v>4.76</v>
       </c>
-      <c r="F81">
-        <v>4.76</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>climbing frame</t>
         </is>
@@ -1988,28 +1704,22 @@
           <t>stehlen</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C82">
         <v>4.76</v>
       </c>
-      <c r="E82">
-        <v>4.38</v>
-      </c>
-      <c r="F82">
-        <v>4.76</v>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
           <t>steal</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2022,19 +1732,13 @@
       <c r="C83">
         <v>4.76</v>
       </c>
-      <c r="F83">
-        <v>4.76</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="E83">
+        <v>7.21</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>scales</t>
         </is>
-      </c>
-      <c r="I83">
-        <v>7.21</v>
-      </c>
-      <c r="J83">
-        <v>8.08</v>
       </c>
     </row>
     <row r="84">
@@ -2046,10 +1750,7 @@
       <c r="C84">
         <v>4.77</v>
       </c>
-      <c r="F84">
-        <v>4.77</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>bitter</t>
         </is>
@@ -2064,10 +1765,7 @@
       <c r="C85">
         <v>4.78</v>
       </c>
-      <c r="F85">
-        <v>4.78</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>sir</t>
         </is>
@@ -2082,10 +1780,7 @@
       <c r="C86">
         <v>4.78</v>
       </c>
-      <c r="F86">
-        <v>4.78</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>insect</t>
         </is>
@@ -2100,10 +1795,7 @@
       <c r="C87">
         <v>4.78</v>
       </c>
-      <c r="F87">
-        <v>4.78</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>jump</t>
         </is>
@@ -2115,16 +1807,13 @@
           <t>leiterwagen</t>
         </is>
       </c>
-      <c r="B88">
+      <c r="C88">
+        <v>4.79</v>
+      </c>
+      <c r="D88">
         <v>0.98</v>
       </c>
-      <c r="D88">
-        <v>4.79</v>
-      </c>
-      <c r="F88">
-        <v>4.79</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>handcart</t>
         </is>
@@ -2139,10 +1828,7 @@
       <c r="C89">
         <v>4.79</v>
       </c>
-      <c r="F89">
-        <v>4.79</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>felt tip pen</t>
         </is>
@@ -2157,10 +1843,7 @@
       <c r="C90">
         <v>4.79</v>
       </c>
-      <c r="F90">
-        <v>4.79</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>hoof</t>
         </is>
@@ -2175,10 +1858,7 @@
       <c r="C91">
         <v>4.79</v>
       </c>
-      <c r="F91">
-        <v>4.79</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>cross</t>
         </is>
@@ -2193,10 +1873,7 @@
       <c r="C92">
         <v>4.79</v>
       </c>
-      <c r="F92">
-        <v>4.79</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>vicinity</t>
         </is>
@@ -2211,10 +1888,7 @@
       <c r="C93">
         <v>4.79</v>
       </c>
-      <c r="F93">
-        <v>4.79</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>penny</t>
         </is>
@@ -2229,10 +1903,7 @@
       <c r="C94">
         <v>4.79</v>
       </c>
-      <c r="F94">
-        <v>4.79</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>unhealthy</t>
         </is>
@@ -2247,10 +1918,7 @@
       <c r="C95">
         <v>4.79</v>
       </c>
-      <c r="F95">
-        <v>4.79</v>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>disperse</t>
         </is>
@@ -2265,10 +1933,7 @@
       <c r="C96">
         <v>4.79</v>
       </c>
-      <c r="F96">
-        <v>4.79</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>distribute</t>
         </is>
@@ -2283,10 +1948,7 @@
       <c r="C97">
         <v>4.8</v>
       </c>
-      <c r="F97">
-        <v>4.8</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>foal</t>
         </is>
@@ -2301,10 +1963,7 @@
       <c r="C98">
         <v>4.8</v>
       </c>
-      <c r="F98">
-        <v>4.8</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>chalk</t>
         </is>
@@ -2316,19 +1975,13 @@
           <t>melone</t>
         </is>
       </c>
-      <c r="B99">
-        <v>1.22</v>
-      </c>
       <c r="C99">
         <v>4.8</v>
       </c>
       <c r="D99">
-        <v>3.55</v>
-      </c>
-      <c r="F99">
-        <v>4.8</v>
-      </c>
-      <c r="H99" t="inlineStr">
+        <v>1.22</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>melon</t>
         </is>
@@ -2340,19 +1993,13 @@
           <t>rabe</t>
         </is>
       </c>
-      <c r="B100">
-        <v>4.31</v>
-      </c>
       <c r="C100">
         <v>4.8</v>
       </c>
       <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="F100">
-        <v>4.8</v>
-      </c>
-      <c r="H100" t="inlineStr">
+        <v>4.31</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>raven</t>
         </is>
@@ -2364,19 +2011,13 @@
           <t>wespe</t>
         </is>
       </c>
-      <c r="B101">
-        <v>1.98</v>
-      </c>
       <c r="C101">
         <v>4.8</v>
       </c>
       <c r="D101">
-        <v>2.35</v>
-      </c>
-      <c r="F101">
-        <v>4.8</v>
-      </c>
-      <c r="H101" t="inlineStr">
+        <v>1.98</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>wasp</t>
         </is>
@@ -2388,16 +2029,13 @@
           <t>zecke</t>
         </is>
       </c>
-      <c r="B102">
+      <c r="C102">
+        <v>4.8</v>
+      </c>
+      <c r="D102">
         <v>0.54</v>
       </c>
-      <c r="D102">
-        <v>4.8</v>
-      </c>
-      <c r="F102">
-        <v>4.8</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>tick</t>
         </is>
@@ -2409,16 +2047,13 @@
           <t>sessellift</t>
         </is>
       </c>
-      <c r="B103">
+      <c r="C103">
+        <v>4.8</v>
+      </c>
+      <c r="D103">
         <v>0.02</v>
       </c>
-      <c r="D103">
-        <v>4.8</v>
-      </c>
-      <c r="F103">
-        <v>4.8</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>chairlift</t>
         </is>
@@ -2430,16 +2065,13 @@
           <t>panflöte</t>
         </is>
       </c>
-      <c r="B104">
+      <c r="C104">
+        <v>4.8</v>
+      </c>
+      <c r="D104">
         <v>0.14</v>
       </c>
-      <c r="D104">
-        <v>4.8</v>
-      </c>
-      <c r="F104">
-        <v>4.8</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>panpipes</t>
         </is>
@@ -2451,16 +2083,13 @@
           <t>kfz-mechaniker</t>
         </is>
       </c>
-      <c r="B105">
+      <c r="C105">
+        <v>4.8</v>
+      </c>
+      <c r="D105">
         <v>0.01</v>
       </c>
-      <c r="D105">
-        <v>4.8</v>
-      </c>
-      <c r="F105">
-        <v>4.8</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>car mechanic</t>
         </is>
@@ -2475,10 +2104,7 @@
       <c r="C106">
         <v>4.81</v>
       </c>
-      <c r="F106">
-        <v>4.81</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>may</t>
         </is>
@@ -2490,28 +2116,19 @@
           <t>säge</t>
         </is>
       </c>
-      <c r="B107">
-        <v>2.81</v>
-      </c>
       <c r="C107">
         <v>4.81</v>
       </c>
       <c r="D107">
-        <v>3.65</v>
-      </c>
-      <c r="F107">
-        <v>4.81</v>
-      </c>
-      <c r="H107" t="inlineStr">
+        <v>2.81</v>
+      </c>
+      <c r="E107">
+        <v>5.71</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>saw</t>
         </is>
-      </c>
-      <c r="I107">
-        <v>5.71</v>
-      </c>
-      <c r="J107">
-        <v>3.55</v>
       </c>
     </row>
     <row r="108">
@@ -2523,10 +2140,7 @@
       <c r="C108">
         <v>4.81</v>
       </c>
-      <c r="F108">
-        <v>4.81</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>tulip</t>
         </is>
@@ -2541,10 +2155,7 @@
       <c r="C109">
         <v>4.82</v>
       </c>
-      <c r="F109">
-        <v>4.82</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>alarm clock</t>
         </is>
@@ -2559,10 +2170,7 @@
       <c r="C110">
         <v>4.83</v>
       </c>
-      <c r="F110">
-        <v>4.83</v>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>put up</t>
         </is>
@@ -2577,10 +2185,7 @@
       <c r="C111">
         <v>4.83</v>
       </c>
-      <c r="F111">
-        <v>4.83</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>eleven</t>
         </is>
@@ -2595,10 +2200,7 @@
       <c r="C112">
         <v>4.83</v>
       </c>
-      <c r="F112">
-        <v>4.83</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>strange</t>
         </is>
@@ -2613,10 +2215,7 @@
       <c r="C113">
         <v>4.83</v>
       </c>
-      <c r="F113">
-        <v>4.83</v>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>animal of prey</t>
         </is>
@@ -2631,10 +2230,7 @@
       <c r="C114">
         <v>4.83</v>
       </c>
-      <c r="F114">
-        <v>4.83</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>juicy</t>
         </is>
@@ -2649,10 +2245,7 @@
       <c r="C115">
         <v>4.83</v>
       </c>
-      <c r="F115">
-        <v>4.83</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>drummer</t>
         </is>
@@ -2667,10 +2260,7 @@
       <c r="C116">
         <v>4.83</v>
       </c>
-      <c r="F116">
-        <v>4.83</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>truth</t>
         </is>
@@ -2685,10 +2275,7 @@
       <c r="C117">
         <v>4.84</v>
       </c>
-      <c r="F117">
-        <v>4.84</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>fishing rod</t>
         </is>
@@ -2703,10 +2290,7 @@
       <c r="C118">
         <v>4.84</v>
       </c>
-      <c r="F118">
-        <v>4.84</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
@@ -2721,10 +2305,7 @@
       <c r="C119">
         <v>4.84</v>
       </c>
-      <c r="F119">
-        <v>4.84</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>sound</t>
         </is>
@@ -2739,19 +2320,13 @@
       <c r="C120">
         <v>4.84</v>
       </c>
-      <c r="F120">
-        <v>4.84</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="E120">
+        <v>5.21</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>vase</t>
         </is>
-      </c>
-      <c r="I120">
-        <v>5.21</v>
-      </c>
-      <c r="J120">
-        <v>6.82</v>
       </c>
     </row>
     <row r="121">
@@ -2763,10 +2338,7 @@
       <c r="C121">
         <v>4.84</v>
       </c>
-      <c r="F121">
-        <v>4.84</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>wild</t>
         </is>
@@ -2781,10 +2353,7 @@
       <c r="C122">
         <v>4.84</v>
       </c>
-      <c r="F122">
-        <v>4.84</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>destroy</t>
         </is>
@@ -2796,16 +2365,13 @@
           <t>steinadler</t>
         </is>
       </c>
-      <c r="B123">
+      <c r="C123">
+        <v>4.84</v>
+      </c>
+      <c r="D123">
         <v>0.11</v>
       </c>
-      <c r="D123">
-        <v>4.84</v>
-      </c>
-      <c r="F123">
-        <v>4.84</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>golden eagle</t>
         </is>
@@ -2820,10 +2386,7 @@
       <c r="C124">
         <v>4.85</v>
       </c>
-      <c r="F124">
-        <v>4.85</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>blind man's buff</t>
         </is>
@@ -2835,28 +2398,19 @@
           <t>zange</t>
         </is>
       </c>
-      <c r="B125">
-        <v>3.65</v>
-      </c>
       <c r="C125">
         <v>4.85</v>
       </c>
       <c r="D125">
         <v>3.65</v>
       </c>
-      <c r="F125">
-        <v>4.85</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="E125">
+        <v>10.54</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>pliers</t>
         </is>
-      </c>
-      <c r="I125">
-        <v>10.54</v>
-      </c>
-      <c r="J125">
-        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -2865,16 +2419,13 @@
           <t>nebelkrähe</t>
         </is>
       </c>
-      <c r="B126">
+      <c r="C126">
+        <v>4.85</v>
+      </c>
+      <c r="D126">
         <v>0.14</v>
       </c>
-      <c r="D126">
-        <v>4.85</v>
-      </c>
-      <c r="F126">
-        <v>4.85</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>hooded crow</t>
         </is>
@@ -2886,16 +2437,13 @@
           <t>safe</t>
         </is>
       </c>
-      <c r="B127">
+      <c r="C127">
+        <v>4.85</v>
+      </c>
+      <c r="D127">
         <v>0.59</v>
       </c>
-      <c r="D127">
-        <v>4.85</v>
-      </c>
-      <c r="F127">
-        <v>4.85</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>safe</t>
         </is>
@@ -2907,16 +2455,13 @@
           <t>schraubstock</t>
         </is>
       </c>
-      <c r="B128">
+      <c r="C128">
+        <v>4.85</v>
+      </c>
+      <c r="D128">
         <v>0.78</v>
       </c>
-      <c r="D128">
-        <v>4.85</v>
-      </c>
-      <c r="F128">
-        <v>4.85</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>vice</t>
         </is>
@@ -2928,16 +2473,13 @@
           <t>motorradrennen</t>
         </is>
       </c>
-      <c r="B129">
+      <c r="C129">
+        <v>4.85</v>
+      </c>
+      <c r="D129">
         <v>0.14</v>
       </c>
-      <c r="D129">
-        <v>4.85</v>
-      </c>
-      <c r="F129">
-        <v>4.85</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>motorcycle racing</t>
         </is>
@@ -2949,13 +2491,10 @@
           <t>turmspringen</t>
         </is>
       </c>
-      <c r="D130">
+      <c r="C130">
         <v>4.85</v>
       </c>
-      <c r="F130">
-        <v>4.85</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>platform diving</t>
         </is>
@@ -2967,16 +2506,13 @@
           <t>stabhochsprung</t>
         </is>
       </c>
-      <c r="B131">
+      <c r="C131">
+        <v>4.85</v>
+      </c>
+      <c r="D131">
         <v>0.23</v>
       </c>
-      <c r="D131">
-        <v>4.85</v>
-      </c>
-      <c r="F131">
-        <v>4.85</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>pole vault</t>
         </is>
@@ -2988,16 +2524,13 @@
           <t>ringen</t>
         </is>
       </c>
-      <c r="B132">
+      <c r="C132">
+        <v>4.85</v>
+      </c>
+      <c r="D132">
         <v>12.71</v>
       </c>
-      <c r="D132">
-        <v>4.85</v>
-      </c>
-      <c r="F132">
-        <v>4.85</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>wrestling</t>
         </is>
@@ -3009,16 +2542,13 @@
           <t>mechaniker</t>
         </is>
       </c>
-      <c r="B133">
+      <c r="C133">
+        <v>4.85</v>
+      </c>
+      <c r="D133">
         <v>3.06</v>
       </c>
-      <c r="D133">
-        <v>4.85</v>
-      </c>
-      <c r="F133">
-        <v>4.85</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>mechanic</t>
         </is>
@@ -3030,25 +2560,22 @@
           <t>auspressen</t>
         </is>
       </c>
-      <c r="E134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C134">
         <v>4.86</v>
       </c>
-      <c r="F134">
-        <v>4.86</v>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
           <t>squeeze</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3061,10 +2588,7 @@
       <c r="C135">
         <v>4.86</v>
       </c>
-      <c r="F135">
-        <v>4.86</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>take consequences</t>
         </is>
@@ -3079,10 +2603,7 @@
       <c r="C136">
         <v>4.86</v>
       </c>
-      <c r="F136">
-        <v>4.86</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>group</t>
         </is>
@@ -3097,10 +2618,7 @@
       <c r="C137">
         <v>4.86</v>
       </c>
-      <c r="F137">
-        <v>4.86</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>heat</t>
         </is>
@@ -3115,10 +2633,7 @@
       <c r="C138">
         <v>4.86</v>
       </c>
-      <c r="F138">
-        <v>4.86</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -3133,10 +2648,7 @@
       <c r="C139">
         <v>4.87</v>
       </c>
-      <c r="F139">
-        <v>4.87</v>
-      </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>fat</t>
         </is>
@@ -3151,10 +2663,7 @@
       <c r="C140">
         <v>4.87</v>
       </c>
-      <c r="F140">
-        <v>4.87</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>float</t>
         </is>
@@ -3169,19 +2678,13 @@
       <c r="C141">
         <v>4.87</v>
       </c>
-      <c r="F141">
-        <v>4.87</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="E141">
+        <v>4.71</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>rocket</t>
         </is>
-      </c>
-      <c r="I141">
-        <v>4.71</v>
-      </c>
-      <c r="J141">
-        <v>5.59</v>
       </c>
     </row>
     <row r="142">
@@ -3190,16 +2693,13 @@
           <t>frisbee</t>
         </is>
       </c>
-      <c r="B142">
+      <c r="C142">
+        <v>4.88</v>
+      </c>
+      <c r="D142">
         <v>0.02</v>
       </c>
-      <c r="D142">
-        <v>4.88</v>
-      </c>
-      <c r="F142">
-        <v>4.88</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>frisbee</t>
         </is>
@@ -3214,10 +2714,7 @@
       <c r="C143">
         <v>4.88</v>
       </c>
-      <c r="F143">
-        <v>4.88</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>attention</t>
         </is>
@@ -3232,10 +2729,7 @@
       <c r="C144">
         <v>4.88</v>
       </c>
-      <c r="F144">
-        <v>4.88</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>pay</t>
         </is>
@@ -3250,10 +2744,7 @@
       <c r="C145">
         <v>4.88</v>
       </c>
-      <c r="F145">
-        <v>4.88</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -3268,10 +2759,7 @@
       <c r="C146">
         <v>4.88</v>
       </c>
-      <c r="F146">
-        <v>4.88</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>heel</t>
         </is>
@@ -3286,10 +2774,7 @@
       <c r="C147">
         <v>4.88</v>
       </c>
-      <c r="F147">
-        <v>4.88</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>cheat</t>
         </is>
@@ -3304,10 +2789,7 @@
       <c r="C148">
         <v>4.88</v>
       </c>
-      <c r="F148">
-        <v>4.88</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>gentle</t>
         </is>
@@ -3319,16 +2801,13 @@
           <t>gleisbauer</t>
         </is>
       </c>
-      <c r="B149">
+      <c r="C149">
+        <v>4.88</v>
+      </c>
+      <c r="D149">
         <v>0.01</v>
       </c>
-      <c r="D149">
-        <v>4.88</v>
-      </c>
-      <c r="F149">
-        <v>4.88</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>track layer</t>
         </is>
@@ -3340,16 +2819,13 @@
           <t>auerhahn</t>
         </is>
       </c>
-      <c r="B150">
+      <c r="C150">
+        <v>4.89</v>
+      </c>
+      <c r="D150">
         <v>0.58</v>
       </c>
-      <c r="D150">
-        <v>4.89</v>
-      </c>
-      <c r="F150">
-        <v>4.89</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>wood grouse</t>
         </is>
@@ -3364,10 +2840,7 @@
       <c r="C151">
         <v>4.89</v>
       </c>
-      <c r="F151">
-        <v>4.89</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>angler</t>
         </is>
@@ -3382,10 +2855,7 @@
       <c r="C152">
         <v>4.89</v>
       </c>
-      <c r="F152">
-        <v>4.89</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>harvest</t>
         </is>
@@ -3400,10 +2870,7 @@
       <c r="C153">
         <v>4.89</v>
       </c>
-      <c r="F153">
-        <v>4.89</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>female teacher</t>
         </is>
@@ -3418,10 +2885,7 @@
       <c r="C154">
         <v>4.89</v>
       </c>
-      <c r="F154">
-        <v>4.89</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>learn</t>
         </is>
@@ -3436,10 +2900,7 @@
       <c r="C155">
         <v>4.89</v>
       </c>
-      <c r="F155">
-        <v>4.89</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>meal</t>
         </is>
@@ -3454,10 +2915,7 @@
       <c r="C156">
         <v>4.89</v>
       </c>
-      <c r="F156">
-        <v>4.89</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>motorbike</t>
         </is>
@@ -3472,10 +2930,7 @@
       <c r="C157">
         <v>4.89</v>
       </c>
-      <c r="F157">
-        <v>4.89</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>wave</t>
         </is>
@@ -3487,25 +2942,19 @@
           <t>querflöte</t>
         </is>
       </c>
-      <c r="B158">
+      <c r="C158">
+        <v>4.89</v>
+      </c>
+      <c r="D158">
         <v>0.15</v>
       </c>
-      <c r="D158">
-        <v>4.89</v>
-      </c>
-      <c r="F158">
-        <v>4.89</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="E158">
+        <v>7.71</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>flute</t>
         </is>
-      </c>
-      <c r="I158">
-        <v>7.71</v>
-      </c>
-      <c r="J158">
-        <v>7.79</v>
       </c>
     </row>
     <row r="159">
@@ -3517,10 +2966,7 @@
       <c r="C159">
         <v>4.9</v>
       </c>
-      <c r="F159">
-        <v>4.9</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>december</t>
         </is>
@@ -3535,10 +2981,7 @@
       <c r="C160">
         <v>4.9</v>
       </c>
-      <c r="F160">
-        <v>4.9</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>celebrate</t>
         </is>
@@ -3550,34 +2993,25 @@
           <t>lineal</t>
         </is>
       </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C161">
         <v>4.9</v>
       </c>
       <c r="E161">
-        <v>4.71</v>
-      </c>
-      <c r="F161">
-        <v>4.9</v>
+        <v>5.21</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
           <t>ruler</t>
-        </is>
-      </c>
-      <c r="I161">
-        <v>5.21</v>
-      </c>
-      <c r="J161">
-        <v>6.11</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3587,19 +3021,13 @@
           <t>sieb</t>
         </is>
       </c>
-      <c r="B162">
-        <v>2.77</v>
-      </c>
       <c r="C162">
         <v>4.9</v>
       </c>
       <c r="D162">
-        <v>2.55</v>
-      </c>
-      <c r="F162">
-        <v>4.9</v>
-      </c>
-      <c r="H162" t="inlineStr">
+        <v>2.77</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>sieve</t>
         </is>
@@ -3611,16 +3039,13 @@
           <t>buckelwal</t>
         </is>
       </c>
-      <c r="B163">
+      <c r="C163">
+        <v>4.9</v>
+      </c>
+      <c r="D163">
         <v>0.02</v>
       </c>
-      <c r="D163">
-        <v>4.9</v>
-      </c>
-      <c r="F163">
-        <v>4.9</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>humpback whale</t>
         </is>
@@ -3632,16 +3057,13 @@
           <t>kolibri</t>
         </is>
       </c>
-      <c r="B164">
+      <c r="C164">
+        <v>4.9</v>
+      </c>
+      <c r="D164">
         <v>0.59</v>
       </c>
-      <c r="D164">
-        <v>4.9</v>
-      </c>
-      <c r="F164">
-        <v>4.9</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>hummingbird</t>
         </is>
@@ -3653,13 +3075,10 @@
           <t>käuzchen</t>
         </is>
       </c>
-      <c r="D165">
+      <c r="C165">
         <v>4.9</v>
       </c>
-      <c r="F165">
-        <v>4.9</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>screech owl</t>
         </is>
@@ -3671,13 +3090,10 @@
           <t>bh</t>
         </is>
       </c>
-      <c r="D166">
+      <c r="C166">
         <v>4.9</v>
       </c>
-      <c r="F166">
-        <v>4.9</v>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>bra</t>
         </is>
@@ -3689,16 +3105,13 @@
           <t>jeansjacke</t>
         </is>
       </c>
-      <c r="B167">
+      <c r="C167">
+        <v>4.9</v>
+      </c>
+      <c r="D167">
         <v>0.04</v>
       </c>
-      <c r="D167">
-        <v>4.9</v>
-      </c>
-      <c r="F167">
-        <v>4.9</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>denim jacket</t>
         </is>
@@ -3710,16 +3123,13 @@
           <t>brechstange</t>
         </is>
       </c>
-      <c r="B168">
+      <c r="C168">
+        <v>4.9</v>
+      </c>
+      <c r="D168">
         <v>0.34</v>
       </c>
-      <c r="D168">
-        <v>4.9</v>
-      </c>
-      <c r="F168">
-        <v>4.9</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>crowbar</t>
         </is>
@@ -3731,16 +3141,13 @@
           <t>hebamme</t>
         </is>
       </c>
-      <c r="B169">
+      <c r="C169">
+        <v>4.9</v>
+      </c>
+      <c r="D169">
         <v>3.92</v>
       </c>
-      <c r="D169">
-        <v>4.9</v>
-      </c>
-      <c r="F169">
-        <v>4.9</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>midwife</t>
         </is>
@@ -3755,10 +3162,7 @@
       <c r="C170">
         <v>4.91</v>
       </c>
-      <c r="F170">
-        <v>4.91</v>
-      </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>walnut</t>
         </is>
@@ -3773,10 +3177,7 @@
       <c r="C171">
         <v>4.92</v>
       </c>
-      <c r="F171">
-        <v>4.92</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>cheeky monkey</t>
         </is>
@@ -3791,10 +3192,7 @@
       <c r="C172">
         <v>4.92</v>
       </c>
-      <c r="F172">
-        <v>4.92</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>hazelnut</t>
         </is>
@@ -3809,10 +3207,7 @@
       <c r="C173">
         <v>4.92</v>
       </c>
-      <c r="F173">
-        <v>4.92</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>writing</t>
         </is>
@@ -3827,10 +3222,7 @@
       <c r="C174">
         <v>4.93</v>
       </c>
-      <c r="F174">
-        <v>4.93</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>book store</t>
         </is>
@@ -3845,10 +3237,7 @@
       <c r="C175">
         <v>4.93</v>
       </c>
-      <c r="F175">
-        <v>4.93</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>joy</t>
         </is>
@@ -3863,10 +3252,7 @@
       <c r="C176">
         <v>4.93</v>
       </c>
-      <c r="F176">
-        <v>4.93</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>postal service</t>
         </is>
@@ -3881,10 +3267,7 @@
       <c r="C177">
         <v>4.93</v>
       </c>
-      <c r="F177">
-        <v>4.93</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>daily</t>
         </is>
@@ -3899,19 +3282,13 @@
       <c r="C178">
         <v>4.94</v>
       </c>
-      <c r="F178">
-        <v>4.94</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="E178">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>anchor</t>
         </is>
-      </c>
-      <c r="I178">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J178">
-        <v>7.14</v>
       </c>
     </row>
     <row r="179">
@@ -3923,10 +3300,7 @@
       <c r="C179">
         <v>4.94</v>
       </c>
-      <c r="F179">
-        <v>4.94</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>phone call</t>
         </is>
@@ -3941,10 +3315,7 @@
       <c r="C180">
         <v>4.94</v>
       </c>
-      <c r="F180">
-        <v>4.94</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>glance</t>
         </is>
@@ -3959,10 +3330,7 @@
       <c r="C181">
         <v>4.94</v>
       </c>
-      <c r="F181">
-        <v>4.94</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>udder</t>
         </is>
@@ -3974,19 +3342,13 @@
           <t>geier</t>
         </is>
       </c>
-      <c r="B182">
-        <v>2.02</v>
-      </c>
       <c r="C182">
         <v>4.94</v>
       </c>
       <c r="D182">
-        <v>3.8</v>
-      </c>
-      <c r="F182">
-        <v>4.94</v>
-      </c>
-      <c r="H182" t="inlineStr">
+        <v>2.02</v>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>vulture</t>
         </is>
@@ -4001,10 +3363,7 @@
       <c r="C183">
         <v>4.94</v>
       </c>
-      <c r="F183">
-        <v>4.94</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>panther</t>
         </is>
@@ -4016,19 +3375,13 @@
           <t>ratte</t>
         </is>
       </c>
-      <c r="B184">
-        <v>8.42</v>
-      </c>
       <c r="C184">
         <v>4.94</v>
       </c>
       <c r="D184">
-        <v>2.8</v>
-      </c>
-      <c r="F184">
-        <v>4.94</v>
-      </c>
-      <c r="H184" t="inlineStr">
+        <v>8.42</v>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>rat</t>
         </is>
@@ -4043,10 +3396,7 @@
       <c r="C185">
         <v>4.94</v>
       </c>
-      <c r="F185">
-        <v>4.94</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>repair</t>
         </is>
@@ -4061,10 +3411,7 @@
       <c r="C186">
         <v>4.94</v>
       </c>
-      <c r="F186">
-        <v>4.94</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>september</t>
         </is>
@@ -4076,13 +3423,10 @@
           <t>wasserspringen</t>
         </is>
       </c>
-      <c r="D187">
+      <c r="C187">
         <v>4.94</v>
       </c>
-      <c r="F187">
-        <v>4.94</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>high diving</t>
         </is>
@@ -4094,13 +3438,10 @@
           <t>strauchtomate</t>
         </is>
       </c>
-      <c r="D188">
+      <c r="C188">
         <v>4.95</v>
       </c>
-      <c r="F188">
-        <v>4.95</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>vine tomato</t>
         </is>
@@ -4112,16 +3453,13 @@
           <t>spültisch</t>
         </is>
       </c>
-      <c r="B189">
+      <c r="C189">
+        <v>4.95</v>
+      </c>
+      <c r="D189">
         <v>0.27</v>
       </c>
-      <c r="D189">
-        <v>4.95</v>
-      </c>
-      <c r="F189">
-        <v>4.95</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>sink unit</t>
         </is>
@@ -4136,10 +3474,7 @@
       <c r="C190">
         <v>4.95</v>
       </c>
-      <c r="F190">
-        <v>4.95</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>entry</t>
         </is>
@@ -4154,10 +3489,7 @@
       <c r="C191">
         <v>4.95</v>
       </c>
-      <c r="F191">
-        <v>4.95</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>curiosity</t>
         </is>
@@ -4172,10 +3504,7 @@
       <c r="C192">
         <v>4.95</v>
       </c>
-      <c r="F192">
-        <v>4.95</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>stroke</t>
         </is>
@@ -4187,16 +3516,13 @@
           <t>lederhandschuh</t>
         </is>
       </c>
-      <c r="B193">
+      <c r="C193">
+        <v>4.95</v>
+      </c>
+      <c r="D193">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D193">
-        <v>4.95</v>
-      </c>
-      <c r="F193">
-        <v>4.95</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>leather gloves</t>
         </is>
@@ -4208,16 +3534,13 @@
           <t>aktenschrank</t>
         </is>
       </c>
-      <c r="B194">
+      <c r="C194">
+        <v>4.95</v>
+      </c>
+      <c r="D194">
         <v>0.32</v>
       </c>
-      <c r="D194">
-        <v>4.95</v>
-      </c>
-      <c r="F194">
-        <v>4.95</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>filing cabinet</t>
         </is>
@@ -4229,16 +3552,13 @@
           <t>anrichte</t>
         </is>
       </c>
-      <c r="B195">
+      <c r="C195">
+        <v>4.95</v>
+      </c>
+      <c r="D195">
         <v>1.46</v>
       </c>
-      <c r="D195">
-        <v>4.95</v>
-      </c>
-      <c r="F195">
-        <v>4.95</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>sideboard</t>
         </is>
@@ -4250,16 +3570,13 @@
           <t>bratsche</t>
         </is>
       </c>
-      <c r="B196">
+      <c r="C196">
+        <v>4.95</v>
+      </c>
+      <c r="D196">
         <v>0.83</v>
       </c>
-      <c r="D196">
-        <v>4.95</v>
-      </c>
-      <c r="F196">
-        <v>4.95</v>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>viola</t>
         </is>
@@ -4271,13 +3588,10 @@
           <t>eisschnelllauf</t>
         </is>
       </c>
-      <c r="D197">
+      <c r="C197">
         <v>4.95</v>
       </c>
-      <c r="F197">
-        <v>4.95</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>speed skating</t>
         </is>
@@ -4289,16 +3603,13 @@
           <t>fahrlehrer</t>
         </is>
       </c>
-      <c r="B198">
+      <c r="C198">
+        <v>4.95</v>
+      </c>
+      <c r="D198">
         <v>0.63</v>
       </c>
-      <c r="D198">
-        <v>4.95</v>
-      </c>
-      <c r="F198">
-        <v>4.95</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>driving instructor</t>
         </is>
@@ -4313,10 +3624,7 @@
       <c r="C199">
         <v>4.96</v>
       </c>
-      <c r="F199">
-        <v>4.96</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>reward</t>
         </is>
@@ -4328,28 +3636,19 @@
           <t>gitarre</t>
         </is>
       </c>
-      <c r="B200">
-        <v>2.6</v>
-      </c>
       <c r="C200">
         <v>4.96</v>
       </c>
       <c r="D200">
-        <v>2.5</v>
-      </c>
-      <c r="F200">
-        <v>4.96</v>
-      </c>
-      <c r="H200" t="inlineStr">
+        <v>2.6</v>
+      </c>
+      <c r="E200">
+        <v>5.21</v>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>guitar</t>
         </is>
-      </c>
-      <c r="I200">
-        <v>5.21</v>
-      </c>
-      <c r="J200">
-        <v>5.99</v>
       </c>
     </row>
     <row r="201">
@@ -4361,10 +3660,7 @@
       <c r="C201">
         <v>4.96</v>
       </c>
-      <c r="F201">
-        <v>4.96</v>
-      </c>
-      <c r="H201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>steering wheel</t>
         </is>
@@ -4379,10 +3675,7 @@
       <c r="C202">
         <v>4.96</v>
       </c>
-      <c r="F202">
-        <v>4.96</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>carton</t>
         </is>
@@ -4397,10 +3690,7 @@
       <c r="C203">
         <v>4.96</v>
       </c>
-      <c r="F203">
-        <v>4.96</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>betray</t>
         </is>
@@ -4415,10 +3705,7 @@
       <c r="C204">
         <v>4.96</v>
       </c>
-      <c r="F204">
-        <v>4.96</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>understand</t>
         </is>
@@ -4430,19 +3717,13 @@
           <t>mais</t>
         </is>
       </c>
-      <c r="B205">
-        <v>7.68</v>
-      </c>
       <c r="C205">
         <v>4.98</v>
       </c>
       <c r="D205">
-        <v>3.15</v>
-      </c>
-      <c r="F205">
-        <v>4.98</v>
-      </c>
-      <c r="H205" t="inlineStr">
+        <v>7.68</v>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>sweetcorn</t>
         </is>
@@ -4457,10 +3738,7 @@
       <c r="C206">
         <v>5</v>
       </c>
-      <c r="F206">
-        <v>5</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>scent</t>
         </is>
@@ -4475,10 +3753,7 @@
       <c r="C207">
         <v>5</v>
       </c>
-      <c r="F207">
-        <v>5</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>egg yolk</t>
         </is>
@@ -4493,10 +3768,7 @@
       <c r="C208">
         <v>5</v>
       </c>
-      <c r="F208">
-        <v>5</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>lazy</t>
         </is>
@@ -4511,10 +3783,7 @@
       <c r="C209">
         <v>5</v>
       </c>
-      <c r="F209">
-        <v>5</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>fever</t>
         </is>
@@ -4529,10 +3798,7 @@
       <c r="C210">
         <v>5</v>
       </c>
-      <c r="F210">
-        <v>5</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>shape</t>
         </is>
@@ -4547,10 +3813,7 @@
       <c r="C211">
         <v>5</v>
       </c>
-      <c r="F211">
-        <v>5</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>feeling</t>
         </is>
@@ -4565,10 +3828,7 @@
       <c r="C212">
         <v>5</v>
       </c>
-      <c r="F212">
-        <v>5</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>helmet</t>
         </is>
@@ -4583,10 +3843,7 @@
       <c r="C213">
         <v>5</v>
       </c>
-      <c r="F213">
-        <v>5</v>
-      </c>
-      <c r="H213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>chamber</t>
         </is>
@@ -4601,10 +3858,7 @@
       <c r="C214">
         <v>5</v>
       </c>
-      <c r="F214">
-        <v>5</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>claw</t>
         </is>
@@ -4616,19 +3870,13 @@
           <t>maler</t>
         </is>
       </c>
-      <c r="B215">
-        <v>52.14</v>
-      </c>
       <c r="C215">
         <v>5</v>
       </c>
       <c r="D215">
-        <v>2.45</v>
-      </c>
-      <c r="F215">
-        <v>5</v>
-      </c>
-      <c r="H215" t="inlineStr">
+        <v>52.14</v>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>painter</t>
         </is>
@@ -4643,10 +3891,7 @@
       <c r="C216">
         <v>5</v>
       </c>
-      <c r="F216">
-        <v>5</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>march</t>
         </is>
@@ -4661,10 +3906,7 @@
       <c r="C217">
         <v>5</v>
       </c>
-      <c r="F217">
-        <v>5</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>mat</t>
         </is>
@@ -4679,10 +3921,7 @@
       <c r="C218">
         <v>5</v>
       </c>
-      <c r="F218">
-        <v>5</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>save</t>
         </is>
@@ -4697,10 +3936,7 @@
       <c r="C219">
         <v>5</v>
       </c>
-      <c r="F219">
-        <v>5</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
@@ -4715,10 +3951,7 @@
       <c r="C220">
         <v>5</v>
       </c>
-      <c r="F220">
-        <v>5</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>saturday</t>
         </is>
@@ -4733,10 +3966,7 @@
       <c r="C221">
         <v>5</v>
       </c>
-      <c r="F221">
-        <v>5</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>singer</t>
         </is>
@@ -4751,10 +3981,7 @@
       <c r="C222">
         <v>5</v>
       </c>
-      <c r="F222">
-        <v>5</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>start</t>
         </is>
@@ -4769,10 +3996,7 @@
       <c r="C223">
         <v>5</v>
       </c>
-      <c r="F223">
-        <v>5</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>proud</t>
         </is>
@@ -4787,10 +4011,7 @@
       <c r="C224">
         <v>5</v>
       </c>
-      <c r="F224">
-        <v>5</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>beach</t>
         </is>
@@ -4805,10 +4026,7 @@
       <c r="C225">
         <v>5</v>
       </c>
-      <c r="F225">
-        <v>5</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -4823,10 +4041,7 @@
       <c r="C226">
         <v>5</v>
       </c>
-      <c r="F226">
-        <v>5</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>parlour</t>
         </is>
@@ -4841,10 +4056,7 @@
       <c r="C227">
         <v>5</v>
       </c>
-      <c r="F227">
-        <v>5</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>practise</t>
         </is>
@@ -4859,10 +4071,7 @@
       <c r="C228">
         <v>5</v>
       </c>
-      <c r="F228">
-        <v>5</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>quarrel</t>
         </is>
@@ -4874,16 +4083,13 @@
           <t>wasserbüffel</t>
         </is>
       </c>
-      <c r="B229">
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229">
         <v>0.06</v>
       </c>
-      <c r="D229">
-        <v>5</v>
-      </c>
-      <c r="F229">
-        <v>5</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>water buffalo</t>
         </is>
@@ -4895,16 +4101,13 @@
           <t>blutorange</t>
         </is>
       </c>
-      <c r="B230">
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230">
         <v>0.02</v>
       </c>
-      <c r="D230">
-        <v>5</v>
-      </c>
-      <c r="F230">
-        <v>5</v>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>blood orange</t>
         </is>
@@ -4916,13 +4119,10 @@
           <t>tv-schrank</t>
         </is>
       </c>
-      <c r="D231">
+      <c r="C231">
         <v>5</v>
       </c>
-      <c r="F231">
-        <v>5</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>tv cabinet</t>
         </is>
@@ -4937,10 +4137,7 @@
       <c r="C232">
         <v>5.04</v>
       </c>
-      <c r="F232">
-        <v>5.04</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>thanks</t>
         </is>
@@ -4955,10 +4152,7 @@
       <c r="C233">
         <v>5.04</v>
       </c>
-      <c r="F233">
-        <v>5.04</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>belly button</t>
         </is>
@@ -4973,19 +4167,13 @@
       <c r="C234">
         <v>5.04</v>
       </c>
-      <c r="F234">
-        <v>5.04</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="E234">
+        <v>6.21</v>
+      </c>
+      <c r="G234" t="inlineStr">
         <is>
           <t>pipe</t>
         </is>
-      </c>
-      <c r="I234">
-        <v>6.21</v>
-      </c>
-      <c r="J234">
-        <v>7.16</v>
       </c>
     </row>
     <row r="235">
@@ -4997,10 +4185,7 @@
       <c r="C235">
         <v>5.05</v>
       </c>
-      <c r="F235">
-        <v>5.05</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>give out</t>
         </is>
@@ -5015,19 +4200,13 @@
       <c r="C236">
         <v>5.05</v>
       </c>
-      <c r="F236">
-        <v>5.05</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="E236">
+        <v>5.71</v>
+      </c>
+      <c r="G236" t="inlineStr">
         <is>
           <t>cowboy</t>
         </is>
-      </c>
-      <c r="I236">
-        <v>5.71</v>
-      </c>
-      <c r="J236">
-        <v>4.55</v>
       </c>
     </row>
     <row r="237">
@@ -5039,10 +4218,7 @@
       <c r="C237">
         <v>5.05</v>
       </c>
-      <c r="F237">
-        <v>5.05</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>prank</t>
         </is>
@@ -5057,10 +4233,7 @@
       <c r="C238">
         <v>5.05</v>
       </c>
-      <c r="F238">
-        <v>5.05</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>staircase</t>
         </is>
@@ -5072,13 +4245,10 @@
           <t>mäusebussard</t>
         </is>
       </c>
-      <c r="D239">
+      <c r="C239">
         <v>5.05</v>
       </c>
-      <c r="F239">
-        <v>5.05</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>common buzzard</t>
         </is>
@@ -5090,16 +4260,13 @@
           <t>haubentaucher</t>
         </is>
       </c>
-      <c r="B240">
+      <c r="C240">
+        <v>5.05</v>
+      </c>
+      <c r="D240">
         <v>0.22</v>
       </c>
-      <c r="D240">
-        <v>5.05</v>
-      </c>
-      <c r="F240">
-        <v>5.05</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>great crested grebe</t>
         </is>
@@ -5111,16 +4278,13 @@
           <t>dattel</t>
         </is>
       </c>
-      <c r="B241">
+      <c r="C241">
+        <v>5.05</v>
+      </c>
+      <c r="D241">
         <v>0.65</v>
       </c>
-      <c r="D241">
-        <v>5.05</v>
-      </c>
-      <c r="F241">
-        <v>5.05</v>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -5132,13 +4296,10 @@
           <t>nektarine</t>
         </is>
       </c>
-      <c r="D242">
+      <c r="C242">
         <v>5.05</v>
       </c>
-      <c r="F242">
-        <v>5.05</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>nectarine</t>
         </is>
@@ -5150,16 +4311,13 @@
           <t>reiseleiter</t>
         </is>
       </c>
-      <c r="B243">
+      <c r="C243">
+        <v>5.05</v>
+      </c>
+      <c r="D243">
         <v>0.24</v>
       </c>
-      <c r="D243">
-        <v>5.05</v>
-      </c>
-      <c r="F243">
-        <v>5.05</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>tourist guide</t>
         </is>
@@ -5171,16 +4329,13 @@
           <t>schweißer</t>
         </is>
       </c>
-      <c r="B244">
+      <c r="C244">
+        <v>5.05</v>
+      </c>
+      <c r="D244">
         <v>0.43</v>
       </c>
-      <c r="D244">
-        <v>5.05</v>
-      </c>
-      <c r="F244">
-        <v>5.05</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>welder</t>
         </is>
@@ -5195,10 +4350,7 @@
       <c r="C245">
         <v>5.06</v>
       </c>
-      <c r="F245">
-        <v>5.06</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>jungle</t>
         </is>
@@ -5213,10 +4365,7 @@
       <c r="C246">
         <v>5.06</v>
       </c>
-      <c r="F246">
-        <v>5.06</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>blackboard</t>
         </is>
@@ -5231,10 +4380,7 @@
       <c r="C247">
         <v>5.07</v>
       </c>
-      <c r="F247">
-        <v>5.07</v>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>office</t>
         </is>
@@ -5249,10 +4395,7 @@
       <c r="C248">
         <v>5.07</v>
       </c>
-      <c r="F248">
-        <v>5.07</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>flyer</t>
         </is>
@@ -5264,28 +4407,19 @@
           <t>kürbis</t>
         </is>
       </c>
-      <c r="B249">
-        <v>1.39</v>
-      </c>
       <c r="C249">
         <v>5.07</v>
       </c>
       <c r="D249">
-        <v>3.15</v>
-      </c>
-      <c r="F249">
-        <v>5.07</v>
-      </c>
-      <c r="H249" t="inlineStr">
+        <v>1.39</v>
+      </c>
+      <c r="E249">
+        <v>6.21</v>
+      </c>
+      <c r="G249" t="inlineStr">
         <is>
           <t>pumpkin</t>
         </is>
-      </c>
-      <c r="I249">
-        <v>6.21</v>
-      </c>
-      <c r="J249">
-        <v>5.49</v>
       </c>
     </row>
     <row r="250">
@@ -5297,10 +4431,7 @@
       <c r="C250">
         <v>5.07</v>
       </c>
-      <c r="F250">
-        <v>5.07</v>
-      </c>
-      <c r="H250" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>medicine</t>
         </is>
@@ -5315,10 +4446,7 @@
       <c r="C251">
         <v>5.08</v>
       </c>
-      <c r="F251">
-        <v>5.08</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>number</t>
         </is>
@@ -5330,25 +4458,22 @@
           <t>rudern</t>
         </is>
       </c>
-      <c r="E252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C252">
         <v>5.1</v>
       </c>
-      <c r="F252">
-        <v>5.1</v>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
           <t>row</t>
-        </is>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5361,10 +4486,7 @@
       <c r="C253">
         <v>5.1</v>
       </c>
-      <c r="F253">
-        <v>5.1</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>address</t>
         </is>
@@ -5379,10 +4501,7 @@
       <c r="C254">
         <v>5.1</v>
       </c>
-      <c r="F254">
-        <v>5.1</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>sac</t>
         </is>
@@ -5394,16 +4513,13 @@
           <t>keyboard</t>
         </is>
       </c>
-      <c r="B255">
+      <c r="C255">
+        <v>5.1</v>
+      </c>
+      <c r="D255">
         <v>0.46</v>
       </c>
-      <c r="D255">
-        <v>5.1</v>
-      </c>
-      <c r="F255">
-        <v>5.1</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>keyboard</t>
         </is>
@@ -5415,16 +4531,13 @@
           <t>tuba</t>
         </is>
       </c>
-      <c r="B256">
+      <c r="C256">
+        <v>5.1</v>
+      </c>
+      <c r="D256">
         <v>0.58</v>
       </c>
-      <c r="D256">
-        <v>5.1</v>
-      </c>
-      <c r="F256">
-        <v>5.1</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>tuba</t>
         </is>
@@ -5436,16 +4549,13 @@
           <t>skilanglauf</t>
         </is>
       </c>
-      <c r="B257">
+      <c r="C257">
+        <v>5.1</v>
+      </c>
+      <c r="D257">
         <v>0.02</v>
       </c>
-      <c r="D257">
-        <v>5.1</v>
-      </c>
-      <c r="F257">
-        <v>5.1</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>cross-country skiing</t>
         </is>
@@ -5457,16 +4567,13 @@
           <t>diskuswerfen</t>
         </is>
       </c>
-      <c r="B258">
+      <c r="C258">
+        <v>5.1</v>
+      </c>
+      <c r="D258">
         <v>0.21</v>
       </c>
-      <c r="D258">
-        <v>5.1</v>
-      </c>
-      <c r="F258">
-        <v>5.1</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>discus throwing</t>
         </is>
@@ -5478,16 +4585,13 @@
           <t>bergsteigen</t>
         </is>
       </c>
-      <c r="B259">
+      <c r="C259">
+        <v>5.1</v>
+      </c>
+      <c r="D259">
         <v>0.32</v>
       </c>
-      <c r="D259">
-        <v>5.1</v>
-      </c>
-      <c r="F259">
-        <v>5.1</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>mountaineering</t>
         </is>
@@ -5499,16 +4603,13 @@
           <t>maschinist</t>
         </is>
       </c>
-      <c r="B260">
+      <c r="C260">
+        <v>5.1</v>
+      </c>
+      <c r="D260">
         <v>1.52</v>
       </c>
-      <c r="D260">
-        <v>5.1</v>
-      </c>
-      <c r="F260">
-        <v>5.1</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>machinist</t>
         </is>
@@ -5520,16 +4621,13 @@
           <t>luftschiff</t>
         </is>
       </c>
-      <c r="B261">
+      <c r="C261">
+        <v>5.11</v>
+      </c>
+      <c r="D261">
         <v>2.57</v>
       </c>
-      <c r="D261">
-        <v>5.11</v>
-      </c>
-      <c r="F261">
-        <v>5.11</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>airship</t>
         </is>
@@ -5544,10 +4642,7 @@
       <c r="C262">
         <v>5.11</v>
       </c>
-      <c r="F262">
-        <v>5.11</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>hair-drier</t>
         </is>
@@ -5562,10 +4657,7 @@
       <c r="C263">
         <v>5.11</v>
       </c>
-      <c r="F263">
-        <v>5.11</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>feel</t>
         </is>
@@ -5580,10 +4672,7 @@
       <c r="C264">
         <v>5.11</v>
       </c>
-      <c r="F264">
-        <v>5.11</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>pile up</t>
         </is>
@@ -5598,10 +4687,7 @@
       <c r="C265">
         <v>5.11</v>
       </c>
-      <c r="F265">
-        <v>5.11</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>violet</t>
         </is>
@@ -5616,10 +4702,7 @@
       <c r="C266">
         <v>5.11</v>
       </c>
-      <c r="F266">
-        <v>5.11</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>destination</t>
         </is>
@@ -5634,10 +4717,7 @@
       <c r="C267">
         <v>5.11</v>
       </c>
-      <c r="F267">
-        <v>5.11</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
@@ -5649,16 +4729,13 @@
           <t>mieder</t>
         </is>
       </c>
-      <c r="B268">
+      <c r="C268">
+        <v>5.11</v>
+      </c>
+      <c r="D268">
         <v>1.17</v>
       </c>
-      <c r="D268">
-        <v>5.11</v>
-      </c>
-      <c r="F268">
-        <v>5.11</v>
-      </c>
-      <c r="H268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>bodice</t>
         </is>
@@ -5670,16 +4747,13 @@
           <t>dreher</t>
         </is>
       </c>
-      <c r="B269">
+      <c r="C269">
+        <v>5.11</v>
+      </c>
+      <c r="D269">
         <v>0.9399999999999999</v>
       </c>
-      <c r="D269">
-        <v>5.11</v>
-      </c>
-      <c r="F269">
-        <v>5.11</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>lathe operator</t>
         </is>
@@ -5691,19 +4765,13 @@
           <t>biber</t>
         </is>
       </c>
-      <c r="B270">
-        <v>1.55</v>
-      </c>
       <c r="C270">
         <v>5.12</v>
       </c>
       <c r="D270">
-        <v>2.95</v>
-      </c>
-      <c r="F270">
-        <v>5.12</v>
-      </c>
-      <c r="H270" t="inlineStr">
+        <v>1.55</v>
+      </c>
+      <c r="G270" t="inlineStr">
         <is>
           <t>beaver</t>
         </is>
@@ -5718,10 +4786,7 @@
       <c r="C271">
         <v>5.12</v>
       </c>
-      <c r="F271">
-        <v>5.12</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>hero</t>
         </is>
@@ -5736,10 +4801,7 @@
       <c r="C272">
         <v>5.12</v>
       </c>
-      <c r="F272">
-        <v>5.12</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>hope</t>
         </is>
@@ -5754,19 +4816,13 @@
       <c r="C273">
         <v>5.12</v>
       </c>
-      <c r="F273">
-        <v>5.12</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="E273">
+        <v>5.71</v>
+      </c>
+      <c r="G273" t="inlineStr">
         <is>
           <t>cap</t>
         </is>
-      </c>
-      <c r="I273">
-        <v>5.71</v>
-      </c>
-      <c r="J273">
-        <v>5.11</v>
       </c>
     </row>
     <row r="274">
@@ -5778,10 +4834,7 @@
       <c r="C274">
         <v>5.12</v>
       </c>
-      <c r="F274">
-        <v>5.12</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>sixteen</t>
         </is>
@@ -5796,10 +4849,7 @@
       <c r="C275">
         <v>5.12</v>
       </c>
-      <c r="F275">
-        <v>5.12</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>kitchen sink</t>
         </is>
@@ -5814,10 +4864,7 @@
       <c r="C276">
         <v>5.13</v>
       </c>
-      <c r="F276">
-        <v>5.13</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>exercise</t>
         </is>
@@ -5832,10 +4879,7 @@
       <c r="C277">
         <v>5.13</v>
       </c>
-      <c r="F277">
-        <v>5.13</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>beg</t>
         </is>
@@ -5850,10 +4894,7 @@
       <c r="C278">
         <v>5.13</v>
       </c>
-      <c r="F278">
-        <v>5.13</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>beggar</t>
         </is>
@@ -5865,28 +4906,19 @@
           <t>geige</t>
         </is>
       </c>
-      <c r="B279">
-        <v>7.01</v>
-      </c>
       <c r="C279">
         <v>5.13</v>
       </c>
       <c r="D279">
-        <v>3.75</v>
-      </c>
-      <c r="F279">
-        <v>5.13</v>
-      </c>
-      <c r="H279" t="inlineStr">
+        <v>7.01</v>
+      </c>
+      <c r="E279">
+        <v>5.21</v>
+      </c>
+      <c r="G279" t="inlineStr">
         <is>
           <t>violin</t>
         </is>
-      </c>
-      <c r="I279">
-        <v>5.21</v>
-      </c>
-      <c r="J279">
-        <v>7.45</v>
       </c>
     </row>
     <row r="280">
@@ -5898,10 +4930,7 @@
       <c r="C280">
         <v>5.13</v>
       </c>
-      <c r="F280">
-        <v>5.13</v>
-      </c>
-      <c r="H280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>greeting</t>
         </is>
@@ -5913,28 +4942,19 @@
           <t>adler</t>
         </is>
       </c>
-      <c r="B281">
-        <v>17.13</v>
-      </c>
       <c r="C281">
         <v>5.14</v>
       </c>
       <c r="D281">
-        <v>3.3</v>
-      </c>
-      <c r="F281">
-        <v>5.14</v>
-      </c>
-      <c r="H281" t="inlineStr">
+        <v>17.13</v>
+      </c>
+      <c r="E281">
+        <v>7.21</v>
+      </c>
+      <c r="G281" t="inlineStr">
         <is>
           <t>eagle</t>
         </is>
-      </c>
-      <c r="I281">
-        <v>7.21</v>
-      </c>
-      <c r="J281">
-        <v>5.66</v>
       </c>
     </row>
     <row r="282">
@@ -5946,10 +4966,7 @@
       <c r="C282">
         <v>5.14</v>
       </c>
-      <c r="F282">
-        <v>5.14</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>invite</t>
         </is>
@@ -5964,10 +4981,7 @@
       <c r="C283">
         <v>5.14</v>
       </c>
-      <c r="F283">
-        <v>5.14</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>greet</t>
         </is>
@@ -5982,10 +4996,7 @@
       <c r="C284">
         <v>5.14</v>
       </c>
-      <c r="F284">
-        <v>5.14</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -6000,10 +5011,7 @@
       <c r="C285">
         <v>5.14</v>
       </c>
-      <c r="F285">
-        <v>5.14</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>parcel</t>
         </is>
@@ -6018,10 +5026,7 @@
       <c r="C286">
         <v>5.14</v>
       </c>
-      <c r="F286">
-        <v>5.14</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>barn door</t>
         </is>
@@ -6036,19 +5041,13 @@
       <c r="C287">
         <v>5.14</v>
       </c>
-      <c r="F287">
-        <v>5.14</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="E287">
+        <v>11.67</v>
+      </c>
+      <c r="G287" t="inlineStr">
         <is>
           <t>syringe</t>
         </is>
-      </c>
-      <c r="I287">
-        <v>11.67</v>
-      </c>
-      <c r="J287">
-        <v>10.36</v>
       </c>
     </row>
     <row r="288">
@@ -6060,19 +5059,13 @@
       <c r="C288">
         <v>5.14</v>
       </c>
-      <c r="F288">
-        <v>5.14</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="E288">
+        <v>4.21</v>
+      </c>
+      <c r="G288" t="inlineStr">
         <is>
           <t>toaster</t>
         </is>
-      </c>
-      <c r="I288">
-        <v>4.21</v>
-      </c>
-      <c r="J288">
-        <v>6.72</v>
       </c>
     </row>
     <row r="289">
@@ -6081,25 +5074,22 @@
           <t>schleppen</t>
         </is>
       </c>
-      <c r="E289">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C289">
         <v>5.14</v>
       </c>
-      <c r="F289">
-        <v>5.14</v>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
           <t>drag</t>
-        </is>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -6112,10 +5102,7 @@
       <c r="C290">
         <v>5.15</v>
       </c>
-      <c r="F290">
-        <v>5.15</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>holidays</t>
         </is>
@@ -6130,10 +5117,7 @@
       <c r="C291">
         <v>5.15</v>
       </c>
-      <c r="F291">
-        <v>5.15</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>designate</t>
         </is>
@@ -6148,10 +5132,7 @@
       <c r="C292">
         <v>5.15</v>
       </c>
-      <c r="F292">
-        <v>5.15</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>goblin</t>
         </is>
@@ -6163,16 +5144,13 @@
           <t>grünfink</t>
         </is>
       </c>
-      <c r="B293">
+      <c r="C293">
+        <v>5.15</v>
+      </c>
+      <c r="D293">
         <v>0.04</v>
       </c>
-      <c r="D293">
-        <v>5.15</v>
-      </c>
-      <c r="F293">
-        <v>5.15</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>greenfinch</t>
         </is>
@@ -6184,13 +5162,10 @@
           <t>weißstorch</t>
         </is>
       </c>
-      <c r="D294">
+      <c r="C294">
         <v>5.15</v>
       </c>
-      <c r="F294">
-        <v>5.15</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>white stork</t>
         </is>
@@ -6202,16 +5177,13 @@
           <t>fenchel</t>
         </is>
       </c>
-      <c r="B295">
+      <c r="C295">
+        <v>5.15</v>
+      </c>
+      <c r="D295">
         <v>1.23</v>
       </c>
-      <c r="D295">
-        <v>5.15</v>
-      </c>
-      <c r="F295">
-        <v>5.15</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>fennel</t>
         </is>
@@ -6223,25 +5195,19 @@
           <t>meißel</t>
         </is>
       </c>
-      <c r="B296">
+      <c r="C296">
+        <v>5.15</v>
+      </c>
+      <c r="D296">
         <v>1.07</v>
       </c>
-      <c r="D296">
-        <v>5.15</v>
-      </c>
-      <c r="F296">
-        <v>5.15</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="E296">
+        <v>11.67</v>
+      </c>
+      <c r="G296" t="inlineStr">
         <is>
           <t>chisel</t>
         </is>
-      </c>
-      <c r="I296">
-        <v>11.67</v>
-      </c>
-      <c r="J296">
-        <v>10.71</v>
       </c>
     </row>
     <row r="297">
@@ -6250,16 +5216,13 @@
           <t>eichelhäher</t>
         </is>
       </c>
-      <c r="B297">
+      <c r="C297">
+        <v>5.16</v>
+      </c>
+      <c r="D297">
         <v>0.28</v>
       </c>
-      <c r="D297">
-        <v>5.16</v>
-      </c>
-      <c r="F297">
-        <v>5.16</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>jay</t>
         </is>
@@ -6274,10 +5237,7 @@
       <c r="C298">
         <v>5.16</v>
       </c>
-      <c r="F298">
-        <v>5.16</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>welcome</t>
         </is>
@@ -6292,10 +5252,7 @@
       <c r="C299">
         <v>5.16</v>
       </c>
-      <c r="F299">
-        <v>5.16</v>
-      </c>
-      <c r="H299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>banner</t>
         </is>
@@ -6310,10 +5267,7 @@
       <c r="C300">
         <v>5.16</v>
       </c>
-      <c r="F300">
-        <v>5.16</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>poem</t>
         </is>
@@ -6328,10 +5282,7 @@
       <c r="C301">
         <v>5.16</v>
       </c>
-      <c r="F301">
-        <v>5.16</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>port</t>
         </is>
@@ -6346,10 +5297,7 @@
       <c r="C302">
         <v>5.16</v>
       </c>
-      <c r="F302">
-        <v>5.16</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>idea</t>
         </is>
@@ -6364,10 +5312,7 @@
       <c r="C303">
         <v>5.16</v>
       </c>
-      <c r="F303">
-        <v>5.16</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>calculate</t>
         </is>
@@ -6382,10 +5327,7 @@
       <c r="C304">
         <v>5.16</v>
       </c>
-      <c r="F304">
-        <v>5.16</v>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>expensive</t>
         </is>
@@ -6400,10 +5342,7 @@
       <c r="C305">
         <v>5.16</v>
       </c>
-      <c r="F305">
-        <v>5.16</v>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>puppy</t>
         </is>
@@ -6415,16 +5354,13 @@
           <t>nymphensittich</t>
         </is>
       </c>
-      <c r="B306">
+      <c r="C306">
+        <v>5.17</v>
+      </c>
+      <c r="D306">
         <v>0.02</v>
       </c>
-      <c r="D306">
-        <v>5.17</v>
-      </c>
-      <c r="F306">
-        <v>5.17</v>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>cockateel</t>
         </is>
@@ -6436,16 +5372,13 @@
           <t>eisvogel</t>
         </is>
       </c>
-      <c r="B307">
+      <c r="C307">
+        <v>5.17</v>
+      </c>
+      <c r="D307">
         <v>0.4</v>
       </c>
-      <c r="D307">
-        <v>5.17</v>
-      </c>
-      <c r="F307">
-        <v>5.17</v>
-      </c>
-      <c r="H307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>kingfisher</t>
         </is>
@@ -6457,13 +5390,10 @@
           <t>pantolette</t>
         </is>
       </c>
-      <c r="D308">
+      <c r="C308">
         <v>5.17</v>
       </c>
-      <c r="F308">
-        <v>5.17</v>
-      </c>
-      <c r="H308" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>slippers</t>
         </is>
@@ -6478,10 +5408,7 @@
       <c r="C309">
         <v>5.17</v>
       </c>
-      <c r="F309">
-        <v>5.17</v>
-      </c>
-      <c r="H309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>in secret</t>
         </is>
@@ -6496,10 +5423,7 @@
       <c r="C310">
         <v>5.17</v>
       </c>
-      <c r="F310">
-        <v>5.17</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>vaccination</t>
         </is>
@@ -6514,10 +5438,7 @@
       <c r="C311">
         <v>5.17</v>
       </c>
-      <c r="F311">
-        <v>5.17</v>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>instrument</t>
         </is>
@@ -6532,10 +5453,7 @@
       <c r="C312">
         <v>5.17</v>
       </c>
-      <c r="F312">
-        <v>5.17</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>separate</t>
         </is>
@@ -6547,16 +5465,13 @@
           <t>schildmütze</t>
         </is>
       </c>
-      <c r="B313">
+      <c r="C313">
+        <v>5.18</v>
+      </c>
+      <c r="D313">
         <v>0.06</v>
       </c>
-      <c r="D313">
-        <v>5.18</v>
-      </c>
-      <c r="F313">
-        <v>5.18</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>peaked cap</t>
         </is>
@@ -6571,10 +5486,7 @@
       <c r="C314">
         <v>5.18</v>
       </c>
-      <c r="F314">
-        <v>5.18</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>mussel</t>
         </is>
@@ -6589,10 +5501,7 @@
       <c r="C315">
         <v>5.19</v>
       </c>
-      <c r="F315">
-        <v>5.19</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>spot</t>
         </is>
@@ -6607,10 +5516,7 @@
       <c r="C316">
         <v>5.19</v>
       </c>
-      <c r="F316">
-        <v>5.19</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>teach</t>
         </is>
@@ -6625,19 +5531,13 @@
       <c r="C317">
         <v>5.2</v>
       </c>
-      <c r="F317">
-        <v>5.2</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="E317">
+        <v>4.21</v>
+      </c>
+      <c r="G317" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
-      </c>
-      <c r="I317">
-        <v>4.21</v>
-      </c>
-      <c r="J317">
-        <v>6</v>
       </c>
     </row>
     <row r="318">
@@ -6649,10 +5549,7 @@
       <c r="C318">
         <v>5.2</v>
       </c>
-      <c r="F318">
-        <v>5.2</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>foggy</t>
         </is>
@@ -6667,10 +5564,7 @@
       <c r="C319">
         <v>5.2</v>
       </c>
-      <c r="F319">
-        <v>5.2</v>
-      </c>
-      <c r="H319" t="inlineStr">
+      <c r="G319" t="inlineStr">
         <is>
           <t>consolation</t>
         </is>
@@ -6685,10 +5579,7 @@
       <c r="C320">
         <v>5.2</v>
       </c>
-      <c r="F320">
-        <v>5.2</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>miracle</t>
         </is>
@@ -6700,16 +5591,13 @@
           <t>einbauschrank</t>
         </is>
       </c>
-      <c r="B321">
+      <c r="C321">
+        <v>5.2</v>
+      </c>
+      <c r="D321">
         <v>0.06</v>
       </c>
-      <c r="D321">
-        <v>5.2</v>
-      </c>
-      <c r="F321">
-        <v>5.2</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>fitted cupboard</t>
         </is>
@@ -6721,16 +5609,13 @@
           <t>klarinette</t>
         </is>
       </c>
-      <c r="B322">
+      <c r="C322">
+        <v>5.2</v>
+      </c>
+      <c r="D322">
         <v>1.4</v>
       </c>
-      <c r="D322">
-        <v>5.2</v>
-      </c>
-      <c r="F322">
-        <v>5.2</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>clarinet</t>
         </is>
@@ -6742,16 +5627,13 @@
           <t>schleifstein</t>
         </is>
       </c>
-      <c r="B323">
+      <c r="C323">
+        <v>5.2</v>
+      </c>
+      <c r="D323">
         <v>0.25</v>
       </c>
-      <c r="D323">
-        <v>5.2</v>
-      </c>
-      <c r="F323">
-        <v>5.2</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>grindstone</t>
         </is>
@@ -6763,16 +5645,13 @@
           <t>marathonlauf</t>
         </is>
       </c>
-      <c r="B324">
+      <c r="C324">
+        <v>5.2</v>
+      </c>
+      <c r="D324">
         <v>0.25</v>
       </c>
-      <c r="D324">
-        <v>5.2</v>
-      </c>
-      <c r="F324">
-        <v>5.2</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>marathon</t>
         </is>
@@ -6784,16 +5663,13 @@
           <t>springreiten</t>
         </is>
       </c>
-      <c r="B325">
+      <c r="C325">
+        <v>5.2</v>
+      </c>
+      <c r="D325">
         <v>0.02</v>
       </c>
-      <c r="D325">
-        <v>5.2</v>
-      </c>
-      <c r="F325">
-        <v>5.2</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>show jumping</t>
         </is>
@@ -6805,13 +5681,10 @@
           <t>schnorcheln</t>
         </is>
       </c>
-      <c r="D326">
+      <c r="C326">
         <v>5.2</v>
       </c>
-      <c r="F326">
-        <v>5.2</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>snorkelling</t>
         </is>
@@ -6823,16 +5696,13 @@
           <t>konditor</t>
         </is>
       </c>
-      <c r="B327">
+      <c r="C327">
+        <v>5.2</v>
+      </c>
+      <c r="D327">
         <v>0.72</v>
       </c>
-      <c r="D327">
-        <v>5.2</v>
-      </c>
-      <c r="F327">
-        <v>5.2</v>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="G327" t="inlineStr">
         <is>
           <t>confectioner</t>
         </is>
@@ -6844,16 +5714,13 @@
           <t>pädagoge</t>
         </is>
       </c>
-      <c r="B328">
+      <c r="C328">
+        <v>5.2</v>
+      </c>
+      <c r="D328">
         <v>5.03</v>
       </c>
-      <c r="D328">
-        <v>5.2</v>
-      </c>
-      <c r="F328">
-        <v>5.2</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>educationist</t>
         </is>
@@ -6865,16 +5732,13 @@
           <t>fliesenleger</t>
         </is>
       </c>
-      <c r="B329">
+      <c r="C329">
+        <v>5.2</v>
+      </c>
+      <c r="D329">
         <v>0.1</v>
       </c>
-      <c r="D329">
-        <v>5.2</v>
-      </c>
-      <c r="F329">
-        <v>5.2</v>
-      </c>
-      <c r="H329" t="inlineStr">
+      <c r="G329" t="inlineStr">
         <is>
           <t>floor tiler</t>
         </is>
@@ -6886,16 +5750,13 @@
           <t>obstbauer</t>
         </is>
       </c>
-      <c r="B330">
+      <c r="C330">
+        <v>5.2</v>
+      </c>
+      <c r="D330">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D330">
-        <v>5.2</v>
-      </c>
-      <c r="F330">
-        <v>5.2</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>fruit farmer</t>
         </is>
@@ -6907,16 +5768,13 @@
           <t>fernfahrer</t>
         </is>
       </c>
-      <c r="B331">
+      <c r="C331">
+        <v>5.2</v>
+      </c>
+      <c r="D331">
         <v>0.26</v>
       </c>
-      <c r="D331">
-        <v>5.2</v>
-      </c>
-      <c r="F331">
-        <v>5.2</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>lorry driver</t>
         </is>
@@ -6931,10 +5789,7 @@
       <c r="C332">
         <v>5.21</v>
       </c>
-      <c r="F332">
-        <v>5.21</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>provide</t>
         </is>
@@ -6949,10 +5804,7 @@
       <c r="C333">
         <v>5.21</v>
       </c>
-      <c r="F333">
-        <v>5.21</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>pedal</t>
         </is>
@@ -6967,10 +5819,7 @@
       <c r="C334">
         <v>5.21</v>
       </c>
-      <c r="F334">
-        <v>5.21</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>person</t>
         </is>
@@ -6982,19 +5831,13 @@
           <t>radieschen</t>
         </is>
       </c>
-      <c r="B335">
-        <v>1.1</v>
-      </c>
       <c r="C335">
         <v>5.21</v>
       </c>
       <c r="D335">
-        <v>2.8</v>
-      </c>
-      <c r="F335">
-        <v>5.21</v>
-      </c>
-      <c r="H335" t="inlineStr">
+        <v>1.1</v>
+      </c>
+      <c r="G335" t="inlineStr">
         <is>
           <t>radish</t>
         </is>
@@ -7009,10 +5852,7 @@
       <c r="C336">
         <v>5.21</v>
       </c>
-      <c r="F336">
-        <v>5.21</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>blame</t>
         </is>
@@ -7024,19 +5864,13 @@
           <t>wiege</t>
         </is>
       </c>
-      <c r="B337">
-        <v>5.85</v>
-      </c>
       <c r="C337">
         <v>5.21</v>
       </c>
       <c r="D337">
-        <v>2.4</v>
-      </c>
-      <c r="F337">
-        <v>5.21</v>
-      </c>
-      <c r="H337" t="inlineStr">
+        <v>5.85</v>
+      </c>
+      <c r="G337" t="inlineStr">
         <is>
           <t>cradle</t>
         </is>
@@ -7048,16 +5882,13 @@
           <t>bachstelze</t>
         </is>
       </c>
-      <c r="B338">
+      <c r="C338">
+        <v>5.21</v>
+      </c>
+      <c r="D338">
         <v>0.18</v>
       </c>
-      <c r="D338">
-        <v>5.21</v>
-      </c>
-      <c r="F338">
-        <v>5.21</v>
-      </c>
-      <c r="H338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>wagtail</t>
         </is>
@@ -7069,16 +5900,13 @@
           <t>sakko</t>
         </is>
       </c>
-      <c r="B339">
+      <c r="C339">
+        <v>5.21</v>
+      </c>
+      <c r="D339">
         <v>0.78</v>
       </c>
-      <c r="D339">
-        <v>5.21</v>
-      </c>
-      <c r="F339">
-        <v>5.21</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>sports jacket</t>
         </is>
@@ -7090,16 +5918,13 @@
           <t>schleifmaschine</t>
         </is>
       </c>
-      <c r="B340">
+      <c r="C340">
+        <v>5.21</v>
+      </c>
+      <c r="D340">
         <v>0.21</v>
       </c>
-      <c r="D340">
-        <v>5.21</v>
-      </c>
-      <c r="F340">
-        <v>5.21</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>sander</t>
         </is>
@@ -7114,10 +5939,7 @@
       <c r="C341">
         <v>5.22</v>
       </c>
-      <c r="F341">
-        <v>5.22</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>cassette</t>
         </is>
@@ -7132,10 +5954,7 @@
       <c r="C342">
         <v>5.22</v>
       </c>
-      <c r="F342">
-        <v>5.22</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>conditioner</t>
         </is>
@@ -7147,16 +5966,13 @@
           <t>fanfare</t>
         </is>
       </c>
-      <c r="B343">
+      <c r="C343">
+        <v>5.22</v>
+      </c>
+      <c r="D343">
         <v>1.45</v>
       </c>
-      <c r="D343">
-        <v>5.22</v>
-      </c>
-      <c r="F343">
-        <v>5.22</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>fanfare</t>
         </is>
@@ -7171,10 +5987,7 @@
       <c r="C344">
         <v>5.23</v>
       </c>
-      <c r="F344">
-        <v>5.23</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>drill</t>
         </is>
@@ -7189,10 +6002,7 @@
       <c r="C345">
         <v>5.23</v>
       </c>
-      <c r="F345">
-        <v>5.23</v>
-      </c>
-      <c r="H345" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>primeval forest</t>
         </is>
